--- a/trunk/LIVRABLES/Rédacteur.xlsx
+++ b/trunk/LIVRABLES/Rédacteur.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Document</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Cahier_recettes_restitution</t>
+  </si>
+  <si>
+    <t>Architecture_ETL</t>
+  </si>
+  <si>
+    <t>Choix Etl</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Sylvain, Romain,Valentin</t>
+  </si>
+  <si>
+    <t>Sylvain,Valentin</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,8 +747,26 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
